--- a/VARIABLES_MACRO.xlsx
+++ b/VARIABLES_MACRO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myloz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myloz\OneDrive\Documents\series_de_tiempo\PROYECTO_CARTERA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C39AB5-DDB5-455C-A6F9-B5BECF8F0D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BA1452-0A85-49EC-865C-56DD2890560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8532" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,12 +43,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,11 +64,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
@@ -101,11 +95,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -322,1671 +318,1634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="6">
+        <v>42035</v>
+      </c>
+      <c r="B2" s="4">
         <v>11.1517</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>17.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="6">
+        <v>42063</v>
+      </c>
+      <c r="B3" s="4">
         <v>10.227600000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.15E-2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>17.36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>42064</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="6">
+        <v>42094</v>
+      </c>
+      <c r="B4" s="4">
         <v>9.1227999999999998</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="6">
+        <v>42124</v>
+      </c>
+      <c r="B5" s="4">
         <v>9.7372999999999994</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>17.239999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>42125</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="6">
+        <v>42155</v>
+      </c>
+      <c r="B6" s="4">
         <v>9.2216000000000005</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>17.16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>42156</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="6">
+        <v>42185</v>
+      </c>
+      <c r="B7" s="4">
         <v>8.4986999999999995</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>17.170000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="6">
+        <v>42216</v>
+      </c>
+      <c r="B8" s="4">
         <v>9.2236999999999991</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>16.850000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>42217</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="6">
+        <v>42247</v>
+      </c>
+      <c r="B9" s="4">
         <v>9.3035999999999994</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>16.84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>42248</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="6">
+        <v>42277</v>
+      </c>
+      <c r="B10" s="4">
         <v>9.0681999999999992</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>16.88</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>42278</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="6">
+        <v>42308</v>
+      </c>
+      <c r="B11" s="4">
         <v>8.4384999999999994</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>17.27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>42309</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="6">
+        <v>42338</v>
+      </c>
+      <c r="B12" s="4">
         <v>7.5631000000000004</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>17.600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>42339</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="6">
+        <v>42369</v>
+      </c>
+      <c r="B13" s="4">
         <v>8.8226999999999993</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>17.64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>42370</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="6">
+        <v>42400</v>
+      </c>
+      <c r="B14" s="4">
         <v>12.1784</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1.29E-2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>18.63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="6">
+        <v>42429</v>
+      </c>
+      <c r="B15" s="4">
         <v>10.367800000000001</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>18.45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>42430</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="6">
+        <v>42460</v>
+      </c>
+      <c r="B16" s="4">
         <v>10.464600000000001</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>18.489999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="6">
+        <v>42490</v>
+      </c>
+      <c r="B17" s="4">
         <v>9.3194999999999997</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>18.73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="6">
+        <v>42521</v>
+      </c>
+      <c r="B18" s="4">
         <v>9.2373999999999992</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>19.010000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="6">
+        <v>42551</v>
+      </c>
+      <c r="B19" s="4">
         <v>9.19</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>19.14</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="6">
+        <v>42582</v>
+      </c>
+      <c r="B20" s="4">
         <v>10.2006</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>19.27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="6">
+        <v>42613</v>
+      </c>
+      <c r="B21" s="4">
         <v>9.2325999999999997</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>19.54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="6">
+        <v>42643</v>
+      </c>
+      <c r="B22" s="4">
         <v>8.8534000000000006</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>19.57</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="6">
+        <v>42674</v>
+      </c>
+      <c r="B23" s="4">
         <v>8.6280000000000001</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>19.84</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>42675</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="A24" s="6">
+        <v>42704</v>
+      </c>
+      <c r="B24" s="4">
         <v>7.7732000000000001</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>19.64</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>42705</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="6">
+        <v>42735</v>
+      </c>
+      <c r="B25" s="4">
         <v>9.0970999999999993</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>19.39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="A26" s="6">
+        <v>42766</v>
+      </c>
+      <c r="B26" s="4">
         <v>11.956899999999999</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>20.88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>42767</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="6">
+        <v>42794</v>
+      </c>
+      <c r="B27" s="4">
         <v>10.872999999999999</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>1.01E-2</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>20.03</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>42795</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="A28" s="6">
+        <v>42825</v>
+      </c>
+      <c r="B28" s="4">
         <v>9.9046000000000003</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>19.78</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>42826</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="6">
+        <v>42855</v>
+      </c>
+      <c r="B29" s="4">
         <v>9.1358999999999995</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>19.87</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>42856</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="6">
+        <v>42886</v>
+      </c>
+      <c r="B30" s="4">
         <v>9.8379999999999992</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>19.78</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>42887</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="6">
+        <v>42916</v>
+      </c>
+      <c r="B31" s="4">
         <v>8.9772999999999996</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>19.47</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>42917</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="6">
+        <v>42947</v>
+      </c>
+      <c r="B32" s="4">
         <v>9.9404000000000003</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>19.39</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>42948</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="A33" s="6">
+        <v>42978</v>
+      </c>
+      <c r="B33" s="4">
         <v>9.5167999999999999</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>18.91</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>42979</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="A34" s="6">
+        <v>43008</v>
+      </c>
+      <c r="B34" s="4">
         <v>9.5469000000000008</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>18.87</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>43009</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="A35" s="6">
+        <v>43039</v>
+      </c>
+      <c r="B35" s="4">
         <v>8.7399000000000004</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>18.88</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>43040</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="6">
+        <v>43069</v>
+      </c>
+      <c r="B36" s="4">
         <v>8.7647999999999993</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>1.8E-3</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>18.670000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>43070</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="6">
+        <v>43100</v>
+      </c>
+      <c r="B37" s="4">
         <v>8.9122000000000003</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>18.66</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="6">
+        <v>43131</v>
+      </c>
+      <c r="B38" s="4">
         <v>12.1374</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>19.25</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>43132</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="6">
+        <v>43159</v>
+      </c>
+      <c r="B39" s="4">
         <v>11.1882</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>43160</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="6">
+        <v>43190</v>
+      </c>
+      <c r="B40" s="4">
         <v>9.7715999999999994</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>18.329999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="6">
+        <v>43220</v>
+      </c>
+      <c r="B41" s="4">
         <v>9.7292000000000005</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>18.16</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>43221</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="6">
+        <v>43251</v>
+      </c>
+      <c r="B42" s="4">
         <v>9.9794999999999998</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>17.77</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>43252</v>
-      </c>
-      <c r="B43" s="5">
+      <c r="A43" s="6">
+        <v>43281</v>
+      </c>
+      <c r="B43" s="4">
         <v>9.3085000000000004</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>17.89</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43282</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="6">
+        <v>43312</v>
+      </c>
+      <c r="B44" s="4">
         <v>10.042299999999999</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>18.41</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>43313</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="6">
+        <v>43343</v>
+      </c>
+      <c r="B45" s="4">
         <v>9.4291999999999998</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>43344</v>
-      </c>
-      <c r="B46" s="5">
+      <c r="A46" s="6">
+        <v>43373</v>
+      </c>
+      <c r="B46" s="4">
         <v>9.6707000000000001</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>17.7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>43374</v>
-      </c>
-      <c r="B47" s="5">
+      <c r="A47" s="6">
+        <v>43404</v>
+      </c>
+      <c r="B47" s="4">
         <v>9.3614999999999995</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>17.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>43405</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" s="6">
+        <v>43434</v>
+      </c>
+      <c r="B48" s="4">
         <v>8.9905000000000008</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>17.28</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>43435</v>
-      </c>
-      <c r="B49" s="5">
+      <c r="A49" s="6">
+        <v>43465</v>
+      </c>
+      <c r="B49" s="4">
         <v>9.9891000000000005</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>17.21</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>43466</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="A50" s="6">
+        <v>43496</v>
+      </c>
+      <c r="B50" s="4">
         <v>13.075200000000001</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>18.43</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>43497</v>
-      </c>
-      <c r="B51" s="5">
+      <c r="A51" s="6">
+        <v>43524</v>
+      </c>
+      <c r="B51" s="4">
         <v>12.092599999999999</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>17.82</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>43525</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="A52" s="6">
+        <v>43555</v>
+      </c>
+      <c r="B52" s="4">
         <v>11.1814</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>17.66</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B53" s="5">
+      <c r="A53" s="6">
+        <v>43585</v>
+      </c>
+      <c r="B53" s="4">
         <v>10.656599999999999</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>17.850000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>43586</v>
-      </c>
-      <c r="B54" s="5">
+      <c r="A54" s="6">
+        <v>43616</v>
+      </c>
+      <c r="B54" s="4">
         <v>10.9519</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>17.079999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>43617</v>
-      </c>
-      <c r="B55" s="5">
+      <c r="A55" s="6">
+        <v>43646</v>
+      </c>
+      <c r="B55" s="4">
         <v>9.7228999999999992</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>43647</v>
-      </c>
-      <c r="B56" s="5">
+      <c r="A56" s="6">
+        <v>43677</v>
+      </c>
+      <c r="B56" s="4">
         <v>11.2807</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>16.66</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>43678</v>
-      </c>
-      <c r="B57" s="5">
+      <c r="A57" s="6">
+        <v>43708</v>
+      </c>
+      <c r="B57" s="4">
         <v>11.1973</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>15.86</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>43709</v>
-      </c>
-      <c r="B58" s="5">
+      <c r="A58" s="6">
+        <v>43738</v>
+      </c>
+      <c r="B58" s="4">
         <v>10.8003</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>15.53</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B59" s="5">
+      <c r="A59" s="6">
+        <v>43769</v>
+      </c>
+      <c r="B59" s="4">
         <v>10.1236</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>15.51</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>43770</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="6">
+        <v>43799</v>
+      </c>
+      <c r="B60" s="4">
         <v>9.6186000000000007</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>15.43</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B61" s="5">
+      <c r="A61" s="6">
+        <v>43830</v>
+      </c>
+      <c r="B61" s="4">
         <v>9.9497</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>15.54</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B62" s="5">
+      <c r="A62" s="6">
+        <v>43861</v>
+      </c>
+      <c r="B62" s="4">
         <v>13.458500000000001</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B63" s="5">
+      <c r="A63" s="6">
+        <v>43890</v>
+      </c>
+      <c r="B63" s="4">
         <v>12.8131</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>15.63</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="A64" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B64" s="4">
         <v>13.1828</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>15.83</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B65" s="5">
+      <c r="A65" s="6">
+        <v>43951</v>
+      </c>
+      <c r="B65" s="4">
         <v>20.485299999999999</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>16.59</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B66" s="5">
+      <c r="A66" s="6">
+        <v>43982</v>
+      </c>
+      <c r="B66" s="4">
         <v>21.972000000000001</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>15.05</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>43983</v>
-      </c>
-      <c r="B67" s="5">
+      <c r="A67" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B67" s="4">
         <v>20.359100000000002</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>-3.8E-3</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B68" s="5">
+      <c r="A68" s="6">
+        <v>44043</v>
+      </c>
+      <c r="B68" s="4">
         <v>20.9147</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>0</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>14.95</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B69" s="5">
+      <c r="A69" s="6">
+        <v>44074</v>
+      </c>
+      <c r="B69" s="4">
         <v>17.442699999999999</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>-1E-4</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>15.13</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B70" s="5">
+      <c r="A70" s="6">
+        <v>44104</v>
+      </c>
+      <c r="B70" s="4">
         <v>16.2928</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>14.48</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B71" s="5">
+      <c r="A71" s="6">
+        <v>44135</v>
+      </c>
+      <c r="B71" s="4">
         <v>15.2814</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>14.25</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B72" s="5">
+      <c r="A72" s="6">
+        <v>44165</v>
+      </c>
+      <c r="B72" s="4">
         <v>13.912800000000001</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>-1.5E-3</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>14.25</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B73" s="5">
+      <c r="A73" s="6">
+        <v>44196</v>
+      </c>
+      <c r="B73" s="4">
         <v>13.914199999999999</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>14.17</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B74" s="5">
+      <c r="A74" s="6">
+        <v>44227</v>
+      </c>
+      <c r="B74" s="4">
         <v>17.563300000000002</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>14.69</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B75" s="5">
+      <c r="A75" s="6">
+        <v>44255</v>
+      </c>
+      <c r="B75" s="4">
         <v>15.5852</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>13.96</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>44256</v>
-      </c>
-      <c r="B76" s="5">
+      <c r="A76" s="6">
+        <v>44286</v>
+      </c>
+      <c r="B76" s="4">
         <v>14.7255</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>13.66</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B77" s="5">
+      <c r="A77" s="6">
+        <v>44316</v>
+      </c>
+      <c r="B77" s="4">
         <v>15.488</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>13.55</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B78" s="5">
+      <c r="A78" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B78" s="4">
         <v>15.2042</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>0.01</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>13.7</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>44348</v>
-      </c>
-      <c r="B79" s="5">
+      <c r="A79" s="6">
+        <v>44377</v>
+      </c>
+      <c r="B79" s="4">
         <v>14.646599999999999</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>13.9</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B80" s="5">
+      <c r="A80" s="6">
+        <v>44408</v>
+      </c>
+      <c r="B80" s="4">
         <v>13.0585</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>14.28</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>44409</v>
-      </c>
-      <c r="B81" s="5">
+      <c r="A81" s="6">
+        <v>44439</v>
+      </c>
+      <c r="B81" s="4">
         <v>12.8614</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>14.38</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>44440</v>
-      </c>
-      <c r="B82" s="5">
+      <c r="A82" s="6">
+        <v>44469</v>
+      </c>
+      <c r="B82" s="4">
         <v>11.9613</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>14.36</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>44470</v>
-      </c>
-      <c r="B83" s="5">
+      <c r="A83" s="6">
+        <v>44500</v>
+      </c>
+      <c r="B83" s="4">
         <v>11.995200000000001</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>1E-4</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>14.42</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>44501</v>
-      </c>
-      <c r="B84" s="5">
+      <c r="A84" s="6">
+        <v>44530</v>
+      </c>
+      <c r="B84" s="4">
         <v>11.533099999999999</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>14.86</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>44531</v>
-      </c>
-      <c r="B85" s="5">
+      <c r="A85" s="6">
+        <v>44561</v>
+      </c>
+      <c r="B85" s="4">
         <v>11.096500000000001</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>15.18</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B86" s="5">
+      <c r="A86" s="6">
+        <v>44592</v>
+      </c>
+      <c r="B86" s="4">
         <v>14.6473</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>1.67E-2</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>16.77</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>44593</v>
-      </c>
-      <c r="B87" s="5">
+      <c r="A87" s="6">
+        <v>44620</v>
+      </c>
+      <c r="B87" s="4">
         <v>12.905200000000001</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>16.57</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>44621</v>
-      </c>
-      <c r="B88" s="5">
+      <c r="A88" s="6">
+        <v>44651</v>
+      </c>
+      <c r="B88" s="4">
         <v>12.1212</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>0.01</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>16.850000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B89" s="5">
+      <c r="A89" s="6">
+        <v>44681</v>
+      </c>
+      <c r="B89" s="4">
         <v>11.1685</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>18.350000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>44682</v>
-      </c>
-      <c r="B90" s="5">
+      <c r="A90" s="6">
+        <v>44712</v>
+      </c>
+      <c r="B90" s="4">
         <v>10.648300000000001</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>19.11</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>44713</v>
-      </c>
-      <c r="B91" s="5">
+      <c r="A91" s="6">
+        <v>44742</v>
+      </c>
+      <c r="B91" s="4">
         <v>11.261200000000001</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>19.84</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B92" s="5">
+      <c r="A92" s="6">
+        <v>44773</v>
+      </c>
+      <c r="B92" s="4">
         <v>10.988899999999999</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>21.45</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>44774</v>
-      </c>
-      <c r="B93" s="5">
+      <c r="A93" s="6">
+        <v>44804</v>
+      </c>
+      <c r="B93" s="4">
         <v>10.6313</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>23.2</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>44805</v>
-      </c>
-      <c r="B94" s="5">
+      <c r="A94" s="6">
+        <v>44834</v>
+      </c>
+      <c r="B94" s="4">
         <v>10.7484</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>24.37</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>44835</v>
-      </c>
-      <c r="B95" s="5">
+      <c r="A95" s="6">
+        <v>44865</v>
+      </c>
+      <c r="B95" s="4">
         <v>9.7210000000000001</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>25.99</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>44866</v>
-      </c>
-      <c r="B96" s="5">
+      <c r="A96" s="6">
+        <v>44895</v>
+      </c>
+      <c r="B96" s="4">
         <v>9.5007999999999999</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="5">
         <v>27.1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>44896</v>
-      </c>
-      <c r="B97" s="5">
+      <c r="A97" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B97" s="4">
         <v>10.2727</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>1.26E-2</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>28.71</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>44927</v>
-      </c>
-      <c r="B98" s="5">
+      <c r="A98" s="6">
+        <v>44957</v>
+      </c>
+      <c r="B98" s="4">
         <v>13.7044</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>1.78E-2</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="5">
         <v>30.84</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B99" s="5">
+      <c r="A99" s="6">
+        <v>44985</v>
+      </c>
+      <c r="B99" s="4">
         <v>11.3531</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>1.66E-2</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="5">
         <v>29.95</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>44986</v>
-      </c>
-      <c r="B100" s="5">
+      <c r="A100" s="6">
+        <v>45016</v>
+      </c>
+      <c r="B100" s="4">
         <v>10.032500000000001</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="5">
         <v>29.69</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B101" s="5">
+      <c r="A101" s="6">
+        <v>45046</v>
+      </c>
+      <c r="B101" s="4">
         <v>10.7247</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="5">
         <v>29.3</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>45047</v>
-      </c>
-      <c r="B102" s="5">
+      <c r="A102" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B102" s="4">
         <v>10.475099999999999</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>28.39</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>45078</v>
-      </c>
-      <c r="B103" s="5">
+      <c r="A103" s="6">
+        <v>45107</v>
+      </c>
+      <c r="B103" s="4">
         <v>9.3423096210000001</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="5">
         <v>27.94</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>45108</v>
-      </c>
-      <c r="B104" s="5">
+      <c r="A104" s="6">
+        <v>45138</v>
+      </c>
+      <c r="B104" s="4">
         <v>9.5728505641015751</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>27.64</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>45139</v>
-      </c>
-      <c r="B105" s="5">
+      <c r="A105" s="6">
+        <v>45169</v>
+      </c>
+      <c r="B105" s="4">
         <v>9.2773719992695955</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="5">
         <v>26.36</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>45170</v>
-      </c>
-      <c r="B106" s="5">
+      <c r="A106" s="6">
+        <v>45199</v>
+      </c>
+      <c r="B106" s="4">
         <v>9.2526741803322139</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>26.39</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>45200</v>
-      </c>
-      <c r="B107" s="5">
+      <c r="A107" s="6">
+        <v>45230</v>
+      </c>
+      <c r="B107" s="4">
         <v>9.2309123842941094</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>26.68</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>45231</v>
-      </c>
-      <c r="B108" s="5">
+      <c r="A108" s="6">
+        <v>45260</v>
+      </c>
+      <c r="B108" s="4">
         <v>9.0073861572210028</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="5">
         <v>26.18</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>45261</v>
-      </c>
-      <c r="B109" s="5">
+      <c r="A109" s="6">
+        <v>45291</v>
+      </c>
+      <c r="B109" s="4">
         <v>10.013717396181603</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="5">
         <v>26.08</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B110" s="5">
+      <c r="A110" s="6">
+        <v>45322</v>
+      </c>
+      <c r="B110" s="4">
         <v>12.661635826705913</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>24.96</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B111" s="5">
+      <c r="A111" s="6">
+        <v>45351</v>
+      </c>
+      <c r="B111" s="4">
         <v>11.666144792067652</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>1.09E-2</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>23.57</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>45352</v>
-      </c>
-      <c r="B112" s="5">
+      <c r="A112" s="6">
+        <v>45382</v>
+      </c>
+      <c r="B112" s="4">
         <v>11.285719499435782</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>23.29</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B113" s="5">
+      <c r="A113" s="6">
+        <v>45412</v>
+      </c>
+      <c r="B113" s="4">
         <v>10.646715730368971</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>23.12</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B114" s="5">
+      <c r="A114" s="6">
+        <v>45443</v>
+      </c>
+      <c r="B114" s="4">
         <v>10.305870827614305</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>4.3E-3</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>22.25</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B115" s="5">
+      <c r="A115" s="6">
+        <v>45473</v>
+      </c>
+      <c r="B115" s="4">
         <v>10.268590171466832</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>22.12</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B116" s="5">
-        <v>9.9181446285116568</v>
-      </c>
-      <c r="C116" s="4">
-        <v>2E-3</v>
-      </c>
-      <c r="D116" s="6">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B117" s="5">
-        <v>9.6626578419937097</v>
-      </c>
-      <c r="C117" s="4">
-        <v>0</v>
-      </c>
-      <c r="D117" s="6">
-        <v>21.03</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B118" s="5">
-        <v>9.1344769517755928</v>
-      </c>
-      <c r="C118" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D118" s="6">
-        <v>20.93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="6"/>
-    </row>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2865,9 +2824,6 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/VARIABLES_MACRO.xlsx
+++ b/VARIABLES_MACRO.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myloz\OneDrive\Documents\series_de_tiempo\PROYECTO_CARTERA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BA1452-0A85-49EC-865C-56DD2890560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9FFE0-6AAA-4F10-9B6C-31EEF79F5E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8532" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CARGAR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rHr9Wdtn/kBk4S3/RF+YO3IdpSLE5O4WDFhwi5t3l3A="/>
     </ext>
@@ -30,13 +41,13 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>TASA_DESOCUPACION</t>
-  </si>
-  <si>
     <t>IPC</t>
   </si>
   <si>
     <t>TASAS_INTERES</t>
+  </si>
+  <si>
+    <t>TASA_OCUPACION</t>
   </si>
 </sst>
 </file>
@@ -45,7 +56,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -95,10 +106,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -320,9 +331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -335,13 +344,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -349,7 +358,7 @@
         <v>42035</v>
       </c>
       <c r="B2" s="4">
-        <v>11.1517</v>
+        <v>59.165300000000002</v>
       </c>
       <c r="C2" s="3">
         <v>6.4000000000000003E-3</v>
@@ -363,7 +372,7 @@
         <v>42063</v>
       </c>
       <c r="B3" s="4">
-        <v>10.227600000000001</v>
+        <v>59.96</v>
       </c>
       <c r="C3" s="3">
         <v>1.15E-2</v>
@@ -377,7 +386,7 @@
         <v>42094</v>
       </c>
       <c r="B4" s="4">
-        <v>9.1227999999999998</v>
+        <v>60.731699999999996</v>
       </c>
       <c r="C4" s="3">
         <v>5.8999999999999999E-3</v>
@@ -391,7 +400,7 @@
         <v>42124</v>
       </c>
       <c r="B5" s="4">
-        <v>9.7372999999999994</v>
+        <v>61.433399999999999</v>
       </c>
       <c r="C5" s="3">
         <v>5.4000000000000003E-3</v>
@@ -405,7 +414,7 @@
         <v>42155</v>
       </c>
       <c r="B6" s="4">
-        <v>9.2216000000000005</v>
+        <v>61.3508</v>
       </c>
       <c r="C6" s="3">
         <v>2.5999999999999999E-3</v>
@@ -419,7 +428,7 @@
         <v>42185</v>
       </c>
       <c r="B7" s="4">
-        <v>8.4986999999999995</v>
+        <v>61.589100000000002</v>
       </c>
       <c r="C7" s="3">
         <v>1E-3</v>
@@ -433,7 +442,7 @@
         <v>42216</v>
       </c>
       <c r="B8" s="4">
-        <v>9.2236999999999991</v>
+        <v>60.8262</v>
       </c>
       <c r="C8" s="3">
         <v>1.9E-3</v>
@@ -447,7 +456,7 @@
         <v>42247</v>
       </c>
       <c r="B9" s="4">
-        <v>9.3035999999999994</v>
+        <v>61.186100000000003</v>
       </c>
       <c r="C9" s="3">
         <v>4.7999999999999996E-3</v>
@@ -461,7 +470,7 @@
         <v>42277</v>
       </c>
       <c r="B10" s="4">
-        <v>9.0681999999999992</v>
+        <v>61.272599999999997</v>
       </c>
       <c r="C10" s="3">
         <v>7.1999999999999998E-3</v>
@@ -475,7 +484,7 @@
         <v>42308</v>
       </c>
       <c r="B11" s="4">
-        <v>8.4384999999999994</v>
+        <v>63.287500000000001</v>
       </c>
       <c r="C11" s="3">
         <v>6.7999999999999996E-3</v>
@@ -489,7 +498,7 @@
         <v>42338</v>
       </c>
       <c r="B12" s="4">
-        <v>7.5631000000000004</v>
+        <v>62.933799999999998</v>
       </c>
       <c r="C12" s="3">
         <v>6.0000000000000001E-3</v>
@@ -503,7 +512,7 @@
         <v>42369</v>
       </c>
       <c r="B13" s="4">
-        <v>8.8226999999999993</v>
+        <v>61.516100000000002</v>
       </c>
       <c r="C13" s="3">
         <v>6.1999999999999998E-3</v>
@@ -517,7 +526,7 @@
         <v>42400</v>
       </c>
       <c r="B14" s="4">
-        <v>12.1784</v>
+        <v>58.956000000000003</v>
       </c>
       <c r="C14" s="3">
         <v>1.29E-2</v>
@@ -531,7 +540,7 @@
         <v>42429</v>
       </c>
       <c r="B15" s="4">
-        <v>10.367800000000001</v>
+        <v>59.887900000000002</v>
       </c>
       <c r="C15" s="3">
         <v>1.2800000000000001E-2</v>
@@ -545,7 +554,7 @@
         <v>42460</v>
       </c>
       <c r="B16" s="4">
-        <v>10.464600000000001</v>
+        <v>59.194699999999997</v>
       </c>
       <c r="C16" s="3">
         <v>9.4000000000000004E-3</v>
@@ -559,7 +568,7 @@
         <v>42490</v>
       </c>
       <c r="B17" s="4">
-        <v>9.3194999999999997</v>
+        <v>61.188400000000001</v>
       </c>
       <c r="C17" s="3">
         <v>5.0000000000000001E-3</v>
@@ -573,7 +582,7 @@
         <v>42521</v>
       </c>
       <c r="B18" s="4">
-        <v>9.2373999999999992</v>
+        <v>60.2331</v>
       </c>
       <c r="C18" s="3">
         <v>5.1000000000000004E-3</v>
@@ -587,7 +596,7 @@
         <v>42551</v>
       </c>
       <c r="B19" s="4">
-        <v>9.19</v>
+        <v>61.089599999999997</v>
       </c>
       <c r="C19" s="3">
         <v>4.7999999999999996E-3</v>
@@ -601,7 +610,7 @@
         <v>42582</v>
       </c>
       <c r="B20" s="4">
-        <v>10.2006</v>
+        <v>59.348300000000002</v>
       </c>
       <c r="C20" s="3">
         <v>5.1999999999999998E-3</v>
@@ -615,7 +624,7 @@
         <v>42613</v>
       </c>
       <c r="B21" s="4">
-        <v>9.2325999999999997</v>
+        <v>60.538600000000002</v>
       </c>
       <c r="C21" s="3">
         <v>-3.2000000000000002E-3</v>
@@ -629,7 +638,7 @@
         <v>42643</v>
       </c>
       <c r="B22" s="4">
-        <v>8.8534000000000006</v>
+        <v>60.475099999999998</v>
       </c>
       <c r="C22" s="3">
         <v>-5.0000000000000001E-4</v>
@@ -643,7 +652,7 @@
         <v>42674</v>
       </c>
       <c r="B23" s="4">
-        <v>8.6280000000000001</v>
+        <v>62.264400000000002</v>
       </c>
       <c r="C23" s="3">
         <v>-5.9999999999999995E-4</v>
@@ -657,7 +666,7 @@
         <v>42704</v>
       </c>
       <c r="B24" s="4">
-        <v>7.7732000000000001</v>
+        <v>61.978999999999999</v>
       </c>
       <c r="C24" s="3">
         <v>1.1000000000000001E-3</v>
@@ -671,7 +680,7 @@
         <v>42735</v>
       </c>
       <c r="B25" s="4">
-        <v>9.0970999999999993</v>
+        <v>60.709800000000001</v>
       </c>
       <c r="C25" s="3">
         <v>4.1999999999999997E-3</v>
@@ -685,7 +694,7 @@
         <v>42766</v>
       </c>
       <c r="B26" s="4">
-        <v>11.956899999999999</v>
+        <v>58.301499999999997</v>
       </c>
       <c r="C26" s="3">
         <v>1.0200000000000001E-2</v>
@@ -699,7 +708,7 @@
         <v>42794</v>
       </c>
       <c r="B27" s="4">
-        <v>10.872999999999999</v>
+        <v>59.127099999999999</v>
       </c>
       <c r="C27" s="3">
         <v>1.01E-2</v>
@@ -713,7 +722,7 @@
         <v>42825</v>
       </c>
       <c r="B28" s="4">
-        <v>9.9046000000000003</v>
+        <v>59.236600000000003</v>
       </c>
       <c r="C28" s="3">
         <v>4.7000000000000002E-3</v>
@@ -727,7 +736,7 @@
         <v>42855</v>
       </c>
       <c r="B29" s="4">
-        <v>9.1358999999999995</v>
+        <v>60.873199999999997</v>
       </c>
       <c r="C29" s="3">
         <v>4.7000000000000002E-3</v>
@@ -741,7 +750,7 @@
         <v>42886</v>
       </c>
       <c r="B30" s="4">
-        <v>9.8379999999999992</v>
+        <v>59.843800000000002</v>
       </c>
       <c r="C30" s="3">
         <v>2.3E-3</v>
@@ -755,7 +764,7 @@
         <v>42916</v>
       </c>
       <c r="B31" s="4">
-        <v>8.9772999999999996</v>
+        <v>61.321100000000001</v>
       </c>
       <c r="C31" s="3">
         <v>1.1000000000000001E-3</v>
@@ -769,7 +778,7 @@
         <v>42947</v>
       </c>
       <c r="B32" s="4">
-        <v>9.9404000000000003</v>
+        <v>59.432499999999997</v>
       </c>
       <c r="C32" s="3">
         <v>-5.0000000000000001E-4</v>
@@ -783,7 +792,7 @@
         <v>42978</v>
       </c>
       <c r="B33" s="4">
-        <v>9.5167999999999999</v>
+        <v>60.1233</v>
       </c>
       <c r="C33" s="3">
         <v>1.4E-3</v>
@@ -797,7 +806,7 @@
         <v>43008</v>
       </c>
       <c r="B34" s="4">
-        <v>9.5469000000000008</v>
+        <v>59.701700000000002</v>
       </c>
       <c r="C34" s="3">
         <v>4.0000000000000002E-4</v>
@@ -811,7 +820,7 @@
         <v>43039</v>
       </c>
       <c r="B35" s="4">
-        <v>8.7399000000000004</v>
+        <v>61.355499999999999</v>
       </c>
       <c r="C35" s="3">
         <v>2.0000000000000001E-4</v>
@@ -825,7 +834,7 @@
         <v>43069</v>
       </c>
       <c r="B36" s="4">
-        <v>8.7647999999999993</v>
+        <v>60.614800000000002</v>
       </c>
       <c r="C36" s="3">
         <v>1.8E-3</v>
@@ -839,7 +848,7 @@
         <v>43100</v>
       </c>
       <c r="B37" s="4">
-        <v>8.9122000000000003</v>
+        <v>60.211300000000001</v>
       </c>
       <c r="C37" s="3">
         <v>3.8E-3</v>
@@ -853,7 +862,7 @@
         <v>43131</v>
       </c>
       <c r="B38" s="4">
-        <v>12.1374</v>
+        <v>57.386400000000002</v>
       </c>
       <c r="C38" s="3">
         <v>6.3E-3</v>
@@ -867,7 +876,7 @@
         <v>43159</v>
       </c>
       <c r="B39" s="4">
-        <v>11.1882</v>
+        <v>57.833300000000001</v>
       </c>
       <c r="C39" s="3">
         <v>7.1000000000000004E-3</v>
@@ -881,7 +890,7 @@
         <v>43190</v>
       </c>
       <c r="B40" s="4">
-        <v>9.7715999999999994</v>
+        <v>58.7333</v>
       </c>
       <c r="C40" s="3">
         <v>2.3999999999999998E-3</v>
@@ -895,7 +904,7 @@
         <v>43220</v>
       </c>
       <c r="B41" s="4">
-        <v>9.7292000000000005</v>
+        <v>59.837899999999998</v>
       </c>
       <c r="C41" s="3">
         <v>4.5999999999999999E-3</v>
@@ -909,7 +918,7 @@
         <v>43251</v>
       </c>
       <c r="B42" s="4">
-        <v>9.9794999999999998</v>
+        <v>59.254100000000001</v>
       </c>
       <c r="C42" s="3">
         <v>2.5000000000000001E-3</v>
@@ -923,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B43" s="4">
-        <v>9.3085000000000004</v>
+        <v>59.891800000000003</v>
       </c>
       <c r="C43" s="3">
         <v>1.5E-3</v>
@@ -937,7 +946,7 @@
         <v>43312</v>
       </c>
       <c r="B44" s="4">
-        <v>10.042299999999999</v>
+        <v>58.879300000000001</v>
       </c>
       <c r="C44" s="3">
         <v>-1.2999999999999999E-3</v>
@@ -951,7 +960,7 @@
         <v>43343</v>
       </c>
       <c r="B45" s="4">
-        <v>9.4291999999999998</v>
+        <v>59.593800000000002</v>
       </c>
       <c r="C45" s="3">
         <v>1.1999999999999999E-3</v>
@@ -965,7 +974,7 @@
         <v>43373</v>
       </c>
       <c r="B46" s="4">
-        <v>9.6707000000000001</v>
+        <v>59.470599999999997</v>
       </c>
       <c r="C46" s="3">
         <v>1.6000000000000001E-3</v>
@@ -979,7 +988,7 @@
         <v>43404</v>
       </c>
       <c r="B47" s="4">
-        <v>9.3614999999999995</v>
+        <v>60.070599999999999</v>
       </c>
       <c r="C47" s="3">
         <v>1.1999999999999999E-3</v>
@@ -993,7 +1002,7 @@
         <v>43434</v>
       </c>
       <c r="B48" s="4">
-        <v>8.9905000000000008</v>
+        <v>58.795200000000001</v>
       </c>
       <c r="C48" s="3">
         <v>1.1999999999999999E-3</v>
@@ -1007,7 +1016,7 @@
         <v>43465</v>
       </c>
       <c r="B49" s="4">
-        <v>9.9891000000000005</v>
+        <v>59.779000000000003</v>
       </c>
       <c r="C49" s="3">
         <v>3.0000000000000001E-3</v>
@@ -1021,7 +1030,7 @@
         <v>43496</v>
       </c>
       <c r="B50" s="4">
-        <v>13.075200000000001</v>
+        <v>56.465400000000002</v>
       </c>
       <c r="C50" s="3">
         <v>6.0000000000000001E-3</v>
@@ -1035,7 +1044,7 @@
         <v>43524</v>
       </c>
       <c r="B51" s="4">
-        <v>12.092599999999999</v>
+        <v>57.551000000000002</v>
       </c>
       <c r="C51" s="3">
         <v>5.7000000000000002E-3</v>
@@ -1049,7 +1058,7 @@
         <v>43555</v>
       </c>
       <c r="B52" s="4">
-        <v>11.1814</v>
+        <v>57.6751</v>
       </c>
       <c r="C52" s="3">
         <v>4.3E-3</v>
@@ -1063,7 +1072,7 @@
         <v>43585</v>
       </c>
       <c r="B53" s="4">
-        <v>10.656599999999999</v>
+        <v>57.314100000000003</v>
       </c>
       <c r="C53" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1077,7 +1086,7 @@
         <v>43616</v>
       </c>
       <c r="B54" s="4">
-        <v>10.9519</v>
+        <v>57.578800000000001</v>
       </c>
       <c r="C54" s="3">
         <v>3.0999999999999999E-3</v>
@@ -1091,7 +1100,7 @@
         <v>43646</v>
       </c>
       <c r="B55" s="4">
-        <v>9.7228999999999992</v>
+        <v>58.783099999999997</v>
       </c>
       <c r="C55" s="3">
         <v>2.7000000000000001E-3</v>
@@ -1105,7 +1114,7 @@
         <v>43677</v>
       </c>
       <c r="B56" s="4">
-        <v>11.2807</v>
+        <v>57.084800000000001</v>
       </c>
       <c r="C56" s="3">
         <v>2.2000000000000001E-3</v>
@@ -1119,7 +1128,7 @@
         <v>43708</v>
       </c>
       <c r="B57" s="4">
-        <v>11.1973</v>
+        <v>56.8598</v>
       </c>
       <c r="C57" s="3">
         <v>8.9999999999999998E-4</v>
@@ -1133,7 +1142,7 @@
         <v>43738</v>
       </c>
       <c r="B58" s="4">
-        <v>10.8003</v>
+        <v>57.3598</v>
       </c>
       <c r="C58" s="3">
         <v>2.3E-3</v>
@@ -1147,7 +1156,7 @@
         <v>43769</v>
       </c>
       <c r="B59" s="4">
-        <v>10.1236</v>
+        <v>58.864100000000001</v>
       </c>
       <c r="C59" s="3">
         <v>1.6000000000000001E-3</v>
@@ -1161,7 +1170,7 @@
         <v>43799</v>
       </c>
       <c r="B60" s="4">
-        <v>9.6186000000000007</v>
+        <v>58.744900000000001</v>
       </c>
       <c r="C60" s="3">
         <v>1E-3</v>
@@ -1175,7 +1184,7 @@
         <v>43830</v>
       </c>
       <c r="B61" s="4">
-        <v>9.9497</v>
+        <v>58.192399999999999</v>
       </c>
       <c r="C61" s="3">
         <v>2.5999999999999999E-3</v>
@@ -1189,7 +1198,7 @@
         <v>43861</v>
       </c>
       <c r="B62" s="4">
-        <v>13.458500000000001</v>
+        <v>55.3277</v>
       </c>
       <c r="C62" s="3">
         <v>4.1999999999999997E-3</v>
@@ -1203,7 +1212,7 @@
         <v>43890</v>
       </c>
       <c r="B63" s="4">
-        <v>12.8131</v>
+        <v>56.0715</v>
       </c>
       <c r="C63" s="3">
         <v>6.7000000000000002E-3</v>
@@ -1217,7 +1226,7 @@
         <v>43921</v>
       </c>
       <c r="B64" s="4">
-        <v>13.1828</v>
+        <v>52.45</v>
       </c>
       <c r="C64" s="3">
         <v>5.7000000000000002E-3</v>
@@ -1231,7 +1240,7 @@
         <v>43951</v>
       </c>
       <c r="B65" s="4">
-        <v>20.485299999999999</v>
+        <v>42.497100000000003</v>
       </c>
       <c r="C65" s="3">
         <v>1.6000000000000001E-3</v>
@@ -1245,7 +1254,7 @@
         <v>43982</v>
       </c>
       <c r="B66" s="4">
-        <v>21.972000000000001</v>
+        <v>44.239699999999999</v>
       </c>
       <c r="C66" s="3">
         <v>-3.2000000000000002E-3</v>
@@ -1259,7 +1268,7 @@
         <v>44012</v>
       </c>
       <c r="B67" s="4">
-        <v>20.359100000000002</v>
+        <v>46.891500000000001</v>
       </c>
       <c r="C67" s="3">
         <v>-3.8E-3</v>
@@ -1273,7 +1282,7 @@
         <v>44043</v>
       </c>
       <c r="B68" s="4">
-        <v>20.9147</v>
+        <v>45.945</v>
       </c>
       <c r="C68" s="3">
         <v>0</v>
@@ -1287,7 +1296,7 @@
         <v>44074</v>
       </c>
       <c r="B69" s="4">
-        <v>17.442699999999999</v>
+        <v>49.728999999999999</v>
       </c>
       <c r="C69" s="3">
         <v>-1E-4</v>
@@ -1301,7 +1310,7 @@
         <v>44104</v>
       </c>
       <c r="B70" s="4">
-        <v>16.2928</v>
+        <v>51.072800000000001</v>
       </c>
       <c r="C70" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1315,7 +1324,7 @@
         <v>44135</v>
       </c>
       <c r="B71" s="4">
-        <v>15.2814</v>
+        <v>53.663699999999999</v>
       </c>
       <c r="C71" s="3">
         <v>-5.9999999999999995E-4</v>
@@ -1329,7 +1338,7 @@
         <v>44165</v>
       </c>
       <c r="B72" s="4">
-        <v>13.912800000000001</v>
+        <v>53.5533</v>
       </c>
       <c r="C72" s="3">
         <v>-1.5E-3</v>
@@ -1343,7 +1352,7 @@
         <v>44196</v>
       </c>
       <c r="B73" s="4">
-        <v>13.914199999999999</v>
+        <v>53.7425</v>
       </c>
       <c r="C73" s="3">
         <v>3.8E-3</v>
@@ -1357,7 +1366,7 @@
         <v>44227</v>
       </c>
       <c r="B74" s="4">
-        <v>17.563300000000002</v>
+        <v>50.078800000000001</v>
       </c>
       <c r="C74" s="3">
         <v>4.1000000000000003E-3</v>
@@ -1371,7 +1380,7 @@
         <v>44255</v>
       </c>
       <c r="B75" s="4">
-        <v>15.5852</v>
+        <v>52.771299999999997</v>
       </c>
       <c r="C75" s="3">
         <v>6.4000000000000003E-3</v>
@@ -1385,7 +1394,7 @@
         <v>44286</v>
       </c>
       <c r="B76" s="4">
-        <v>14.7255</v>
+        <v>52.527299999999997</v>
       </c>
       <c r="C76" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1399,7 +1408,7 @@
         <v>44316</v>
       </c>
       <c r="B77" s="4">
-        <v>15.488</v>
+        <v>51.571100000000001</v>
       </c>
       <c r="C77" s="3">
         <v>5.8999999999999999E-3</v>
@@ -1413,7 +1422,7 @@
         <v>44347</v>
       </c>
       <c r="B78" s="4">
-        <v>15.2042</v>
+        <v>52.106200000000001</v>
       </c>
       <c r="C78" s="3">
         <v>0.01</v>
@@ -1427,7 +1436,7 @@
         <v>44377</v>
       </c>
       <c r="B79" s="4">
-        <v>14.646599999999999</v>
+        <v>52.253700000000002</v>
       </c>
       <c r="C79" s="3">
         <v>-5.0000000000000001E-4</v>
@@ -1441,7 +1450,7 @@
         <v>44408</v>
       </c>
       <c r="B80" s="4">
-        <v>13.0585</v>
+        <v>53.088099999999997</v>
       </c>
       <c r="C80" s="3">
         <v>3.2000000000000002E-3</v>
@@ -1455,7 +1464,7 @@
         <v>44439</v>
       </c>
       <c r="B81" s="4">
-        <v>12.8614</v>
+        <v>53.432200000000002</v>
       </c>
       <c r="C81" s="3">
         <v>4.4999999999999997E-3</v>
@@ -1469,7 +1478,7 @@
         <v>44469</v>
       </c>
       <c r="B82" s="4">
-        <v>11.9613</v>
+        <v>53.633499999999998</v>
       </c>
       <c r="C82" s="3">
         <v>3.8E-3</v>
@@ -1483,7 +1492,7 @@
         <v>44500</v>
       </c>
       <c r="B83" s="4">
-        <v>11.995200000000001</v>
+        <v>54.612000000000002</v>
       </c>
       <c r="C83" s="3">
         <v>1E-4</v>
@@ -1497,7 +1506,7 @@
         <v>44530</v>
       </c>
       <c r="B84" s="4">
-        <v>11.533099999999999</v>
+        <v>55.016599999999997</v>
       </c>
       <c r="C84" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1511,7 +1520,7 @@
         <v>44561</v>
       </c>
       <c r="B85" s="4">
-        <v>11.096500000000001</v>
+        <v>55.5413</v>
       </c>
       <c r="C85" s="3">
         <v>7.3000000000000001E-3</v>
@@ -1525,7 +1534,7 @@
         <v>44592</v>
       </c>
       <c r="B86" s="4">
-        <v>14.6473</v>
+        <v>53.408999999999999</v>
       </c>
       <c r="C86" s="3">
         <v>1.67E-2</v>
@@ -1539,7 +1548,7 @@
         <v>44620</v>
       </c>
       <c r="B87" s="4">
-        <v>12.905200000000001</v>
+        <v>55.884300000000003</v>
       </c>
       <c r="C87" s="3">
         <v>1.6299999999999999E-2</v>
@@ -1553,7 +1562,7 @@
         <v>44651</v>
       </c>
       <c r="B88" s="4">
-        <v>12.1212</v>
+        <v>55.821399999999997</v>
       </c>
       <c r="C88" s="3">
         <v>0.01</v>
@@ -1567,7 +1576,7 @@
         <v>44681</v>
       </c>
       <c r="B89" s="4">
-        <v>11.1685</v>
+        <v>56.468499999999999</v>
       </c>
       <c r="C89" s="3">
         <v>1.2500000000000001E-2</v>
@@ -1581,7 +1590,7 @@
         <v>44712</v>
       </c>
       <c r="B90" s="4">
-        <v>10.648300000000001</v>
+        <v>56.987299999999998</v>
       </c>
       <c r="C90" s="3">
         <v>8.3999999999999995E-3</v>
@@ -1595,7 +1604,7 @@
         <v>44742</v>
       </c>
       <c r="B91" s="4">
-        <v>11.261200000000001</v>
+        <v>56.502600000000001</v>
       </c>
       <c r="C91" s="3">
         <v>5.1000000000000004E-3</v>
@@ -1609,7 +1618,7 @@
         <v>44773</v>
       </c>
       <c r="B92" s="4">
-        <v>10.988899999999999</v>
+        <v>56.5291</v>
       </c>
       <c r="C92" s="3">
         <v>8.0999999999999996E-3</v>
@@ -1623,7 +1632,7 @@
         <v>44804</v>
       </c>
       <c r="B93" s="4">
-        <v>10.6313</v>
+        <v>56.729799999999997</v>
       </c>
       <c r="C93" s="3">
         <v>1.0200000000000001E-2</v>
@@ -1637,7 +1646,7 @@
         <v>44834</v>
       </c>
       <c r="B94" s="4">
-        <v>10.7484</v>
+        <v>57.248699999999999</v>
       </c>
       <c r="C94" s="3">
         <v>9.2999999999999992E-3</v>
@@ -1651,7 +1660,7 @@
         <v>44865</v>
       </c>
       <c r="B95" s="4">
-        <v>9.7210000000000001</v>
+        <v>57.736400000000003</v>
       </c>
       <c r="C95" s="3">
         <v>7.1999999999999998E-3</v>
@@ -1665,7 +1674,7 @@
         <v>44895</v>
       </c>
       <c r="B96" s="4">
-        <v>9.5007999999999999</v>
+        <v>57.362900000000003</v>
       </c>
       <c r="C96" s="3">
         <v>7.7000000000000002E-3</v>
@@ -1679,7 +1688,7 @@
         <v>44926</v>
       </c>
       <c r="B97" s="4">
-        <v>10.2727</v>
+        <v>57.251199999999997</v>
       </c>
       <c r="C97" s="3">
         <v>1.26E-2</v>
@@ -1693,7 +1702,7 @@
         <v>44957</v>
       </c>
       <c r="B98" s="4">
-        <v>13.7044</v>
+        <v>54.697800000000001</v>
       </c>
       <c r="C98" s="3">
         <v>1.78E-2</v>
@@ -1707,7 +1716,7 @@
         <v>44985</v>
       </c>
       <c r="B99" s="4">
-        <v>11.3531</v>
+        <v>56.516599999999997</v>
       </c>
       <c r="C99" s="3">
         <v>1.66E-2</v>
@@ -1721,7 +1730,7 @@
         <v>45016</v>
       </c>
       <c r="B100" s="4">
-        <v>10.032500000000001</v>
+        <v>57.880099999999999</v>
       </c>
       <c r="C100" s="3">
         <v>1.0500000000000001E-2</v>
@@ -1735,7 +1744,7 @@
         <v>45046</v>
       </c>
       <c r="B101" s="4">
-        <v>10.7247</v>
+        <v>57.679099999999998</v>
       </c>
       <c r="C101" s="3">
         <v>7.7999999999999996E-3</v>
@@ -1749,7 +1758,7 @@
         <v>45077</v>
       </c>
       <c r="B102" s="4">
-        <v>10.475099999999999</v>
+        <v>57.168700000000001</v>
       </c>
       <c r="C102" s="3">
         <v>4.3E-3</v>
@@ -1763,7 +1772,7 @@
         <v>45107</v>
       </c>
       <c r="B103" s="4">
-        <v>9.3423096210000001</v>
+        <v>58.324316891000002</v>
       </c>
       <c r="C103" s="3">
         <v>3.0000000000000001E-3</v>
@@ -1777,7 +1786,7 @@
         <v>45138</v>
       </c>
       <c r="B104" s="4">
-        <v>9.5728505641015751</v>
+        <v>58.591552018068469</v>
       </c>
       <c r="C104" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1791,7 +1800,7 @@
         <v>45169</v>
       </c>
       <c r="B105" s="4">
-        <v>9.2773719992695955</v>
+        <v>58.465340320980822</v>
       </c>
       <c r="C105" s="3">
         <v>7.0000000000000001E-3</v>
@@ -1805,7 +1814,7 @@
         <v>45199</v>
       </c>
       <c r="B106" s="4">
-        <v>9.2526741803322139</v>
+        <v>58.254994767996607</v>
       </c>
       <c r="C106" s="3">
         <v>5.4000000000000003E-3</v>
@@ -1819,7 +1828,7 @@
         <v>45230</v>
       </c>
       <c r="B107" s="4">
-        <v>9.2309123842941094</v>
+        <v>58.122121622072477</v>
       </c>
       <c r="C107" s="3">
         <v>2.5000000000000001E-3</v>
@@ -1833,7 +1842,7 @@
         <v>45260</v>
       </c>
       <c r="B108" s="4">
-        <v>9.0073861572210028</v>
+        <v>58.311300931422636</v>
       </c>
       <c r="C108" s="3">
         <v>4.7000000000000002E-3</v>
@@ -1847,7 +1856,7 @@
         <v>45291</v>
       </c>
       <c r="B109" s="4">
-        <v>10.013717396181603</v>
+        <v>57.434632950310579</v>
       </c>
       <c r="C109" s="3">
         <v>4.4999999999999997E-3</v>
@@ -1861,7 +1870,7 @@
         <v>45322</v>
       </c>
       <c r="B110" s="4">
-        <v>12.661635826705913</v>
+        <v>55.256828771374344</v>
       </c>
       <c r="C110" s="3">
         <v>9.1999999999999998E-3</v>
@@ -1875,7 +1884,7 @@
         <v>45351</v>
       </c>
       <c r="B111" s="4">
-        <v>11.666144792067652</v>
+        <v>56.362688158707861</v>
       </c>
       <c r="C111" s="3">
         <v>1.09E-2</v>
@@ -1889,7 +1898,7 @@
         <v>45382</v>
       </c>
       <c r="B112" s="4">
-        <v>11.285719499435782</v>
+        <v>56.678325662885896</v>
       </c>
       <c r="C112" s="3">
         <v>7.0000000000000001E-3</v>
@@ -1903,7 +1912,7 @@
         <v>45412</v>
       </c>
       <c r="B113" s="4">
-        <v>10.646715730368971</v>
+        <v>57.157353838496441</v>
       </c>
       <c r="C113" s="3">
         <v>5.8999999999999999E-3</v>
@@ -1917,7 +1926,7 @@
         <v>45443</v>
       </c>
       <c r="B114" s="4">
-        <v>10.305870827614305</v>
+        <v>57.502189788770472</v>
       </c>
       <c r="C114" s="3">
         <v>4.3E-3</v>
@@ -1931,7 +1940,7 @@
         <v>45473</v>
       </c>
       <c r="B115" s="4">
-        <v>10.268590171466832</v>
+        <v>57.160908819571731</v>
       </c>
       <c r="C115" s="3">
         <v>3.2000000000000002E-3</v>
